--- a/Team-Data/2008-09/1-27-2008-09.xlsx
+++ b/Team-Data/2008-09/1-27-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -774,31 +841,31 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
@@ -878,28 +945,28 @@
         <v>17.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,40 +975,40 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -953,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -983,22 +1050,22 @@
         <v>28</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.422</v>
+        <v>0.409</v>
       </c>
       <c r="H4" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J4" t="n">
-        <v>76.3</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N4" t="n">
         <v>0.354</v>
@@ -1066,22 +1133,22 @@
         <v>18.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>15.4</v>
@@ -1099,28 +1166,28 @@
         <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="n">
         <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,10 +1196,10 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
@@ -1141,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1150,25 +1217,25 @@
         <v>25</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.386</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
         <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
@@ -1275,37 +1342,37 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1323,10 +1390,10 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1338,31 +1405,31 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -1397,124 +1464,124 @@
         <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="AD6" t="n">
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM6" t="n">
         <v>5</v>
       </c>
-      <c r="AM6" t="n">
-        <v>4</v>
-      </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,28 +1590,28 @@
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY6" t="n">
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1684,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
         <v>0.375</v>
       </c>
       <c r="O8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
@@ -1809,34 +1876,34 @@
         <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
@@ -1887,16 +1954,16 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2033,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2060,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2087,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2215,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2227,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>17</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2251,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2266,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.378</v>
+        <v>0.386</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
         <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L12" t="n">
         <v>7.4</v>
       </c>
       <c r="M12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N12" t="n">
         <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0.8090000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
         <v>22.9</v>
@@ -2543,7 +2610,7 @@
         <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2555,31 +2622,31 @@
         <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="n">
         <v>1</v>
@@ -2588,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2630,16 +2697,16 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2782,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
         <v>15</v>
@@ -2803,13 +2870,13 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -2853,52 +2920,52 @@
         <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.791</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.381</v>
       </c>
       <c r="O14" t="n">
         <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
         <v>23.4</v>
@@ -2907,49 +2974,49 @@
         <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,19 +3049,19 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -3032,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J15" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>4.4</v>
       </c>
       <c r="M15" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T15" t="n">
         <v>38.2</v>
@@ -3086,31 +3153,31 @@
         <v>16.5</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,25 +3198,25 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN15" t="n">
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3167,16 +3234,16 @@
         <v>17</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3337,7 +3404,7 @@
         <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
@@ -3358,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.468</v>
+        <v>0.458</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
@@ -3426,34 +3493,34 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,16 +3529,16 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,13 +3571,13 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3519,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>13</v>
@@ -3531,16 +3598,16 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3549,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3668,13 +3735,13 @@
         <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3862,7 +3929,7 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>6</v>
@@ -3874,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3895,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4041,10 +4108,10 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
         <v>10</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4250,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4259,7 +4326,7 @@
         <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
@@ -4444,13 +4511,13 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.773</v>
+        <v>0.767</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="P23" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
@@ -4560,16 +4627,16 @@
         <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4629,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4638,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4799,13 +4866,13 @@
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>25</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4957,7 +5024,7 @@
         <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -4975,13 +5042,13 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4993,7 +5060,7 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.628</v>
+        <v>0.614</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
         <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.7</v>
@@ -5094,25 +5161,25 @@
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5124,19 +5191,19 @@
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM26" t="n">
         <v>11</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,31 +5230,31 @@
         <v>20</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5234,49 +5301,49 @@
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P27" t="n">
         <v>25.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
@@ -5288,49 +5355,49 @@
         <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC27" t="n">
         <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5339,16 +5406,16 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT27" t="n">
         <v>27</v>
       </c>
-      <c r="AT27" t="n">
-        <v>28</v>
-      </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>24</v>
@@ -5363,10 +5430,10 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,37 +5483,37 @@
         <v>36.7</v>
       </c>
       <c r="J28" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.759</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U28" t="n">
         <v>21.8</v>
@@ -5455,28 +5522,28 @@
         <v>12.1</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
         <v>18.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
         <v>14</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5539,7 +5606,7 @@
         <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -5661,25 +5728,25 @@
         <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5688,13 +5755,13 @@
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
         <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.543</v>
+        <v>0.556</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5786,7 +5853,7 @@
         <v>0.473</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>13.5</v>
@@ -5798,31 +5865,31 @@
         <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R30" t="n">
         <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5831,16 +5898,16 @@
         <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
         <v>101.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5852,7 +5919,7 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5867,10 +5934,10 @@
         <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6070,22 +6137,22 @@
         <v>29</v>
       </c>
       <c r="AT31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-27-2008-09</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
